--- a/src_W10/TriTruthOutput.xlsx
+++ b/src_W10/TriTruthOutput.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Nombre</t>
   </si>
@@ -70,22 +70,16 @@
     <t>Vet2</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
-    <t xml:space="preserve">#-6#37.4 #-6.1#37.5 </t>
-  </si>
-  <si>
-    <t>Tue Apr  7 18:03:15 2020</t>
-  </si>
-  <si>
-    <t>Tue Apr  7 18:03:20 2020</t>
-  </si>
-  <si>
-    <t>Tue Apr  7 18:03:22 2020</t>
+    <t xml:space="preserve">#-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 </t>
+  </si>
+  <si>
+    <t>Tue Apr  7 20:55:24 2020</t>
   </si>
 </sst>
 </file>
@@ -488,12 +482,6 @@
       <c r="D2">
         <v>655900026</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
@@ -509,16 +497,13 @@
         <v>687128963</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -547,6 +532,15 @@
       </c>
       <c r="D5">
         <v>648752169</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">

--- a/src_W10/TriTruthOutput.xlsx
+++ b/src_W10/TriTruthOutput.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Nombre</t>
   </si>
@@ -68,18 +68,6 @@
   </si>
   <si>
     <t>Vet2</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 #-6#37.4 #-6.1#37.5 </t>
-  </si>
-  <si>
-    <t>Tue Apr  7 20:55:24 2020</t>
   </si>
 </sst>
 </file>
@@ -496,15 +484,6 @@
       <c r="D3">
         <v>687128963</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
@@ -532,15 +511,6 @@
       </c>
       <c r="D5">
         <v>648752169</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">

--- a/src_W10/TriTruthOutput.xlsx
+++ b/src_W10/TriTruthOutput.xlsx
@@ -34,7 +34,7 @@
     <t>DropTime</t>
   </si>
   <si>
-    <t>Check Time</t>
+    <t>CheckTime</t>
   </si>
   <si>
     <t>Dorsal</t>

--- a/src_W10/TriTruthOutput.xlsx
+++ b/src_W10/TriTruthOutput.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TFG-TriTruth\src_W10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16068E61-01E6-49B2-8D4A-F191FF8F217C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Nombre</t>
   </si>
@@ -68,13 +74,67 @@
   </si>
   <si>
     <t>Vet2</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#38.440286#-6.448454 #38.440772#-6.449727 #38.441015#-6.450660 #38.441284#-6.451519 #38.441461#-6.452377 #38.441528#-6.453192 #38.441629#-6.454072 #38.441763#-6.455810 #38.441797#-6.456969 #38.441974#-6.458052 #38.368750#-6.411907 #38.369712#-6.411644 #38.370577#-6.411399 #38.371471#-6.411083 #38.372474#-6.410838 #38.373381#-6.410487 #38.374261#-6.409838 #38.375058#-6.409242 #38.375882#-6.408471 #38.376927#-6.408190 #38.381344#-6.407909 #38.428472#-6.497351 #38.419869#-6.489540 #38.419869#-6.489540 </t>
+  </si>
+  <si>
+    <t>Wed Sep  2 19:53:31 2020</t>
+  </si>
+  <si>
+    <t>Wed Sep  2 19:53:46 2020</t>
+  </si>
+  <si>
+    <t>Wed Sep  2 19:53:28 2020</t>
+  </si>
+  <si>
+    <t>Wed Sep  2 19:53:25 2020</t>
+  </si>
+  <si>
+    <t>Wed Sep  2 19:53:21 2020</t>
+  </si>
+  <si>
+    <t>Wed Sep  2 19:57:31 2020</t>
+  </si>
+  <si>
+    <t>Wed Sep  2 19:57:36 2020</t>
+  </si>
+  <si>
+    <t>Wed Sep  2 19:57:29 2020</t>
+  </si>
+  <si>
+    <t>Paco Salinas</t>
+  </si>
+  <si>
+    <t>Jorge Saras</t>
+  </si>
+  <si>
+    <t>Marina Salas</t>
+  </si>
+  <si>
+    <t>Cad</t>
+  </si>
+  <si>
+    <t>Wed Sep  2 19:53:38 2020</t>
+  </si>
+  <si>
+    <t>Wed Sep  2 19:54:51 2020</t>
+  </si>
+  <si>
+    <t>Wed Sep  2 19:52:58 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,11 +197,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -183,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,9 +283,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,6 +335,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,14 +528,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -457,9 +572,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -470,10 +585,16 @@
       <c r="D2">
         <v>655900026</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -484,10 +605,16 @@
       <c r="D3">
         <v>687128963</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -498,10 +625,22 @@
       <c r="D4">
         <v>641287385</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -512,8 +651,20 @@
       <c r="D5">
         <v>648752169</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -525,6 +676,78 @@
       </c>
       <c r="D6">
         <v>698751389</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>658315987</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>645873985</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>648257896</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
